--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3E06A1F2-55F2-454B-8296-1C6249258653}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>login page</t>
   </si>
@@ -114,39 +120,6 @@
     <t>2.11</t>
   </si>
   <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>2.15</t>
-  </si>
-  <si>
-    <t>2.16</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>2.19</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
     <t>* verification email</t>
   </si>
   <si>
@@ -154,13 +127,37 @@
   </si>
   <si>
     <t xml:space="preserve">δημιουργία πεδίων φίλτρων </t>
+  </si>
+  <si>
+    <t>Ναι, Πρέπει να τροποποιηθεί με τεχνολογία ajax</t>
+  </si>
+  <si>
+    <t>Έγινε, Εκρεμεί η δημιουργία πίνακα login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front End </t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Υλοποίηση Με το Framework Bootstrap για όλο το site</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Υπέυθυνος</t>
+  </si>
+  <si>
+    <t>Ενέργειες</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,15 +204,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,9 +294,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,6 +346,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,33 +539,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -532,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -540,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -548,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -556,15 +609,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -572,186 +625,162 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30">
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B27" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3E06A1F2-55F2-454B-8296-1C6249258653}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE638A6-62FD-427D-96E5-87E7473EDC95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>login page</t>
   </si>
@@ -151,13 +151,31 @@
   </si>
   <si>
     <t>Ενέργειες</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ναι, Πρέπει να τροποποιηθεί με τεχνολογία ajax
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Δημήτρης: Τα αεροδρόμια ήδη γίνονται retrieve με ajax</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +188,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -204,7 +231,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +570,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +578,7 @@
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -689,8 +716,8 @@
         <v>33</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="s">
-        <v>35</v>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,7 +785,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE638A6-62FD-427D-96E5-87E7473EDC95}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>login page</t>
   </si>
@@ -132,9 +126,6 @@
     <t>Ναι, Πρέπει να τροποποιηθεί με τεχνολογία ajax</t>
   </si>
   <si>
-    <t>Έγινε, Εκρεμεί η δημιουργία πίνακα login</t>
-  </si>
-  <si>
     <t xml:space="preserve">Front End </t>
   </si>
   <si>
@@ -151,6 +142,18 @@
   </si>
   <si>
     <t>Ενέργειες</t>
+  </si>
+  <si>
+    <t>Δημιουργία του πίνακα από το Json που θα έρθει από το backend</t>
+  </si>
+  <si>
+    <t>Κώστας</t>
+  </si>
+  <si>
+    <t>Δημήτρης</t>
+  </si>
+  <si>
+    <t>Νάσια</t>
   </si>
   <si>
     <r>
@@ -161,7 +164,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="161"/>
@@ -170,12 +173,42 @@
       <t>Δημήτρης: Τα αεροδρόμια ήδη γίνονται retrieve με ajax</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Αεροδρόμια, Εταιρίες έχει ήδη γίνε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ι</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, εκκρεμεί ο πίνακας που θα κρατάει τις επιλογές του χρήστη</t>
+    </r>
+  </si>
+  <si>
+    <t>Δημήτρης,Κώστας</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,9 +227,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -223,15 +272,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -247,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -289,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,26 +375,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,23 +410,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -566,17 +585,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -585,21 +604,21 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
@@ -608,48 +627,66 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +718,7 @@
       <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1"/>
@@ -690,51 +727,68 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -770,17 +824,20 @@
       <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
-        <v>39</v>
+      <c r="C27" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -802,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>login page</t>
   </si>
@@ -203,12 +203,15 @@
   <si>
     <t>Δημήτρης,Κώστας</t>
   </si>
+  <si>
+    <t>Ναι</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +377,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -409,7 +411,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,14 +586,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -600,7 +601,7 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -614,7 +615,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -623,7 +624,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -633,8 +634,11 @@
       <c r="C3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -644,8 +648,11 @@
       <c r="C4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -655,8 +662,11 @@
       <c r="C5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -667,7 +677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -677,8 +687,11 @@
       <c r="C7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -688,33 +701,36 @@
       <c r="C8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -723,7 +739,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -737,7 +753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="32.25" customHeight="1">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -751,7 +767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -765,7 +781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="45">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -779,7 +795,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -790,37 +806,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -829,7 +845,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -847,24 +863,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06014FCD-121D-458D-9A1F-ADF0A52311E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>login page</t>
   </si>
@@ -118,9 +124,6 @@
   </si>
   <si>
     <t>δημιουργία φόρμας επιλογής αεροδρομίου προορισμού, ημ/νιας αναχώρισης και επιστροφής</t>
-  </si>
-  <si>
-    <t xml:space="preserve">δημιουργία πεδίων φίλτρων </t>
   </si>
   <si>
     <t>Ναι, Πρέπει να τροποποιηθεί με τεχνολογία ajax</t>
@@ -206,12 +209,48 @@
   <si>
     <t>Ναι</t>
   </si>
+  <si>
+    <t>To footer πρέπει να κρύβεται ή να είναι roll σε μικρές αναλύσεις κινητού (κάτω από 768px το Height)</t>
+  </si>
+  <si>
+    <t>Σύνδεση του μενού με τις λειτουργίες του site</t>
+  </si>
+  <si>
+    <t>Δεν ανατέθηκε ακόμη</t>
+  </si>
+  <si>
+    <t>Δημιουργία token στο Login</t>
+  </si>
+  <si>
+    <t>MVC model στο Login</t>
+  </si>
+  <si>
+    <t>MVC model στο SignUp</t>
+  </si>
+  <si>
+    <t>Πίνακας επιλογών χρήστη στην Mysql</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Αποθήκευση επιλογών χρήστη</t>
+  </si>
+  <si>
+    <t>Ανάκτηση επιλογών χρήστη</t>
+  </si>
+  <si>
+    <t>Μερικώς</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +293,14 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -285,9 +332,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,7 +351,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -345,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,9 +425,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,6 +477,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,14 +670,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -601,21 +685,21 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -624,7 +708,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -632,13 +716,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -646,13 +730,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -660,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -674,10 +758,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -685,13 +769,13 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -699,38 +783,56 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -739,7 +841,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -747,27 +849,27 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32.25" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -775,13 +877,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -789,71 +891,108 @@
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" t="s">
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -863,24 +1002,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06014FCD-121D-458D-9A1F-ADF0A52311E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,32 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
   <si>
     <t>login page</t>
   </si>
   <si>
-    <t>carousel</t>
-  </si>
-  <si>
     <t>a/a</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
     <t>captcha</t>
   </si>
   <si>
     <t>main page</t>
   </si>
   <si>
-    <t>δημιουργία πίνακα χρηστών στη βάση δεδομένων</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -57,30 +39,6 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -99,30 +57,6 @@
     <t>2.4</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>* verification email</t>
-  </si>
-  <si>
     <t>δημιουργία φόρμας επιλογής αεροδρομίου προορισμού, ημ/νιας αναχώρισης και επιστροφής</t>
   </si>
   <si>
@@ -139,9 +73,6 @@
   </si>
   <si>
     <t>Task</t>
-  </si>
-  <si>
-    <t>Υπέυθυνος</t>
   </si>
   <si>
     <t>Ενέργειες</t>
@@ -245,12 +176,108 @@
   <si>
     <t>Μερικώς</t>
   </si>
+  <si>
+    <t>Υπεύθυνος</t>
+  </si>
+  <si>
+    <t>δημιουργία carousel</t>
+  </si>
+  <si>
+    <t>δημιουργία μενού πλοήγησης στο site</t>
+  </si>
+  <si>
+    <t>δημιουργία μενού εισαγωγής ή εγγραφής στην ιστοσελίδα</t>
+  </si>
+  <si>
+    <t>δημιουργία φόρμας εισόδου στην ιστοσελίδα</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>ο χρήστης δίνει email /password</t>
+  </si>
+  <si>
+    <t>υπάρχει δυνατότητα ανάκτησης password</t>
+  </si>
+  <si>
+    <t>Register page</t>
+  </si>
+  <si>
+    <t>δημιουργία φόρμας εγγραφής στην ιστοσελίδα</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>ο χρήστης δίνει email /password/ όνομα/ επίθετο</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>με το πάτημα του registration η εφαρμογή στέλνει confirmation email στον χρήστη</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>με το confirmation του χρήστη ο λογαριασμός του χρήστη καταγράφεται στη βάση</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>search page</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>έξοδος από τον λογαριασμό του χρήστη</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -333,9 +360,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -351,7 +379,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,27 +453,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,24 +487,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,329 +662,510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="30">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="32.25" customHeight="1"/>
+    <row r="45" spans="1:4">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="30">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B55" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C55" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D55" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
+      <c r="C57" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1002,24 +1175,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0FACD758-DBB0-41F8-846B-F7AEBF0221ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>login page</t>
   </si>
@@ -272,12 +278,18 @@
   <si>
     <t>6.3</t>
   </si>
+  <si>
+    <t>Πρέπει να γίνει με jquery</t>
+  </si>
+  <si>
+    <t>Χρόνος υλοποίησης σε ώρες</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,7 +391,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -421,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -453,9 +465,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -487,6 +517,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,14 +710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -677,7 +725,7 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -690,8 +738,11 @@
       <c r="D1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -699,7 +750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -713,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -726,8 +777,11 @@
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -740,12 +794,15 @@
       <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -754,7 +811,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -767,8 +824,11 @@
       <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -782,7 +842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -796,7 +856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -808,7 +868,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -819,7 +879,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -830,10 +890,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -842,7 +902,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -855,8 +915,11 @@
       <c r="D16" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -870,7 +933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -884,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -898,7 +961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -912,7 +975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -921,7 +984,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -933,10 +996,10 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -945,7 +1008,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
@@ -956,10 +1019,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -968,7 +1031,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -982,7 +1045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -993,10 +1056,13 @@
         <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1010,7 +1076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1024,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1035,7 +1101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1046,7 +1112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1057,15 +1123,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -1074,7 +1140,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="30">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -1087,8 +1153,11 @@
       <c r="D38" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="45">
+      <c r="E38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -1098,8 +1167,14 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1110,64 +1185,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="32.25" customHeight="1"/>
-    <row r="45" spans="1:4">
+    <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
-        <v>3</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="30">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="45">
-      <c r="A56" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="s">
-        <v>21</v>
-      </c>
-    </row>
+    <row r="56" ht="45" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1175,24 +1206,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0FACD758-DBB0-41F8-846B-F7AEBF0221ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{075A46D9-9AB6-4901-A686-1A5751E92987}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>login page</t>
   </si>
@@ -283,6 +283,21 @@
   </si>
   <si>
     <t>Χρόνος υλοποίησης σε ώρες</t>
+  </si>
+  <si>
+    <t>Γενικά</t>
+  </si>
+  <si>
+    <t>Να μπει ένα Popup με τα στοιχεία μας όταν πατάει κάποιος στο Flight Scanner του μενου</t>
+  </si>
+  <si>
+    <t>Το site μας θα είναι στα ελληνικά η english?</t>
+  </si>
+  <si>
+    <t>Ιδέες παρακαλώ…</t>
+  </si>
+  <si>
+    <t>Τώρα είναι και τα δύο</t>
   </si>
 </sst>
 </file>
@@ -711,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,11 +1201,30 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
     </row>
@@ -1198,7 +1232,6 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="56" ht="45" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{075A46D9-9AB6-4901-A686-1A5751E92987}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B596FA-148B-4C9C-9113-014D7602C6F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>2.4</t>
-  </si>
-  <si>
-    <t>δημιουργία φόρμας επιλογής αεροδρομίου προορισμού, ημ/νιας αναχώρισης και επιστροφής</t>
   </si>
   <si>
     <t>Ναι, Πρέπει να τροποποιηθεί με τεχνολογία ajax</t>
@@ -298,6 +295,11 @@
   </si>
   <si>
     <t>Τώρα είναι και τα δύο</t>
+  </si>
+  <si>
+    <t>δημιουργία φόρμας επιλογής:
+ημ/νιας αναχώρισης και επιστροφής και
+αεροδρομίου άφιξης και προορισμού με χρήση api που παρέχει αναζήτηση με τουλάχιστον 3 γράμματα στο όνομα της πόλης ή του διεθνούς κωδικού του αεροδρομίου</t>
   </si>
 </sst>
 </file>
@@ -376,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -388,9 +390,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -728,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,16 +750,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,13 +775,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -784,13 +789,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -801,13 +806,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -831,13 +836,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -848,38 +853,38 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -888,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -899,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -913,22 +918,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -936,63 +941,63 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
@@ -1001,13 +1006,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="4"/>
     </row>
@@ -1019,19 +1024,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1042,36 +1047,36 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
         <v>20</v>
       </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1079,68 +1084,68 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1151,22 +1156,22 @@
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>12</v>
@@ -1174,16 +1179,16 @@
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>4</v>
@@ -1191,13 +1196,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1205,24 +1210,24 @@
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
         <v>76</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>77</v>
-      </c>
-      <c r="D44" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B596FA-148B-4C9C-9113-014D7602C6F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2D5A6C3-BB5A-4500-B2DC-0E6B951B2116}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t>login page</t>
   </si>
@@ -300,6 +300,12 @@
     <t>δημιουργία φόρμας επιλογής:
 ημ/νιας αναχώρισης και επιστροφής και
 αεροδρομίου άφιξης και προορισμού με χρήση api που παρέχει αναζήτηση με τουλάχιστον 3 γράμματα στο όνομα της πόλης ή του διεθνούς κωδικού του αεροδρομίου</t>
+  </si>
+  <si>
+    <t>Δεν ανατέθηκε</t>
+  </si>
+  <si>
+    <t>Υλοποιήθηκε μερικώς. Θα είναι στα αγγλικά</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,7 +417,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,11 +1193,11 @@
       <c r="C39" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>38</v>
+      <c r="D39" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,6 +1224,9 @@
       <c r="B43" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -1231,6 +1240,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2D5A6C3-BB5A-4500-B2DC-0E6B951B2116}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDFB7E4-8410-4704-9ED0-65451B033635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>login page</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>2.4</t>
-  </si>
-  <si>
-    <t>Ναι, Πρέπει να τροποποιηθεί με τεχνολογία ajax</t>
   </si>
   <si>
     <t xml:space="preserve">Front End </t>
@@ -150,9 +147,6 @@
     <t>Σύνδεση του μενού με τις λειτουργίες του site</t>
   </si>
   <si>
-    <t>Δεν ανατέθηκε ακόμη</t>
-  </si>
-  <si>
     <t>Δημιουργία token στο Login</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>δημιουργία φόρμας επιλογής:
 ημ/νιας αναχώρισης και επιστροφής και
 αεροδρομίου άφιξης και προορισμού με χρήση api που παρέχει αναζήτηση με τουλάχιστον 3 γράμματα στο όνομα της πόλης ή του διεθνούς κωδικού του αεροδρομίου</t>
-  </si>
-  <si>
-    <t>Δεν ανατέθηκε</t>
   </si>
   <si>
     <t>Υλοποιήθηκε μερικώς. Θα είναι στα αγγλικά</t>
@@ -401,7 +392,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,7 +408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,16 +747,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,13 +772,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,13 +786,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -812,13 +803,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -842,13 +833,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -859,38 +850,38 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -899,10 +890,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,10 +904,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,22 +921,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -947,80 +944,89 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="4"/>
+      <c r="E21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4"/>
+      <c r="E22">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
@@ -1030,19 +1036,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1053,36 +1059,39 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -1090,68 +1099,80 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,22 +1183,22 @@
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38">
         <v>12</v>
@@ -1185,16 +1206,16 @@
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -1202,13 +1223,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,32 +1237,35 @@
         <v>7</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
         <v>75</v>
-      </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D45" s="4"/>
     </row>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDFB7E4-8410-4704-9ED0-65451B033635}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D28EC40-E012-408F-B8E8-9576A454E5F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
   <si>
     <t>login page</t>
   </si>
@@ -258,9 +258,6 @@
     <t>5.7</t>
   </si>
   <si>
-    <t>5.8</t>
-  </si>
-  <si>
     <t>6.1</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
   </si>
   <si>
     <t>Το site μας θα είναι στα ελληνικά η english?</t>
-  </si>
-  <si>
-    <t>Ιδέες παρακαλώ…</t>
   </si>
   <si>
     <t>Τώρα είναι και τα δύο</t>
@@ -297,13 +291,22 @@
   </si>
   <si>
     <t>Υλοποιήθηκε μερικώς. Θα είναι στα αγγλικά</t>
+  </si>
+  <si>
+    <t>Ναι, υλοποιήθηκε με Jquery</t>
+  </si>
+  <si>
+    <t>Κώστας, Νάσια</t>
+  </si>
+  <si>
+    <t>Εν' αναμονή του Token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +357,14 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -375,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,9 +401,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -728,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,10 +1105,10 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1130,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>20</v>
@@ -1171,107 +1185,110 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>36</v>
+      <c r="D38" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>25</v>
+      <c r="D39" t="s">
+        <v>78</v>
       </c>
       <c r="E39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>7</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>20</v>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D28EC40-E012-408F-B8E8-9576A454E5F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
   <si>
     <t>login page</t>
   </si>
@@ -301,12 +295,15 @@
   <si>
     <t>Εν' αναμονή του Token</t>
   </si>
+  <si>
+    <t>0.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -404,9 +401,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -464,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,27 +496,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,24 +530,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -741,14 +705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -756,7 +720,7 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -773,7 +737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -781,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -794,8 +758,11 @@
       <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -812,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -829,11 +796,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="6"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -842,7 +809,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -859,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -872,8 +839,11 @@
       <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -886,8 +856,11 @@
       <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -898,8 +871,11 @@
         <v>21</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -907,13 +883,13 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -927,10 +903,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -939,7 +915,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -956,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -969,8 +945,11 @@
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -983,8 +962,11 @@
       <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -997,8 +979,11 @@
       <c r="D19" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1011,8 +996,11 @@
       <c r="D20" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1020,14 +1008,14 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1042,10 +1030,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -1054,7 +1042,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="B25" s="2" t="s">
         <v>57</v>
       </c>
@@ -1064,11 +1052,14 @@
       <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>5</v>
       </c>
@@ -1077,7 +1068,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1094,7 +1085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -1111,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -1125,7 +1116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="90">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1142,52 +1133,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>20</v>
+      <c r="C32" t="s">
+        <v>21</v>
       </c>
       <c r="E32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>20</v>
+      <c r="C33" t="s">
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>20</v>
+      <c r="C34" t="s">
+        <v>21</v>
       </c>
       <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -1196,7 +1187,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1213,7 +1204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="45">
       <c r="A38" t="s">
         <v>66</v>
       </c>
@@ -1230,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1247,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>7</v>
       </c>
@@ -1256,7 +1247,7 @@
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="30">
       <c r="B42" s="2" t="s">
         <v>71</v>
       </c>
@@ -1267,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="32.25" customHeight="1">
       <c r="B43" s="2" t="s">
         <v>72</v>
       </c>
@@ -1281,12 +1272,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="D44" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
@@ -1297,24 +1288,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
   <si>
     <t>login page</t>
   </si>
@@ -82,6 +82,212 @@
   </si>
   <si>
     <t>Νάσια</t>
+  </si>
+  <si>
+    <t>Δημήτρης,Κώστας</t>
+  </si>
+  <si>
+    <t>To footer πρέπει να κρύβεται ή να είναι roll σε μικρές αναλύσεις κινητού (κάτω από 768px το Height)</t>
+  </si>
+  <si>
+    <t>Σύνδεση του μενού με τις λειτουργίες του site</t>
+  </si>
+  <si>
+    <t>Δημιουργία token στο Login</t>
+  </si>
+  <si>
+    <t>MVC model στο Login</t>
+  </si>
+  <si>
+    <t>MVC model στο SignUp</t>
+  </si>
+  <si>
+    <t>Πίνακας επιλογών χρήστη στην Mysql</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Αποθήκευση επιλογών χρήστη</t>
+  </si>
+  <si>
+    <t>Ανάκτηση επιλογών χρήστη</t>
+  </si>
+  <si>
+    <t>Μερικώς</t>
+  </si>
+  <si>
+    <t>Υπεύθυνος</t>
+  </si>
+  <si>
+    <t>δημιουργία carousel</t>
+  </si>
+  <si>
+    <t>δημιουργία μενού πλοήγησης στο site</t>
+  </si>
+  <si>
+    <t>δημιουργία μενού εισαγωγής ή εγγραφής στην ιστοσελίδα</t>
+  </si>
+  <si>
+    <t>δημιουργία φόρμας εισόδου στην ιστοσελίδα</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>ο χρήστης δίνει email /password</t>
+  </si>
+  <si>
+    <t>υπάρχει δυνατότητα ανάκτησης password</t>
+  </si>
+  <si>
+    <t>Register page</t>
+  </si>
+  <si>
+    <t>δημιουργία φόρμας εγγραφής στην ιστοσελίδα</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>ο χρήστης δίνει email /password/ όνομα/ επίθετο</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>με το πάτημα του registration η εφαρμογή στέλνει confirmation email στον χρήστη</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>με το confirmation του χρήστη ο λογαριασμός του χρήστη καταγράφεται στη βάση</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>search page</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>έξοδος από τον λογαριασμό του χρήστη</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Χρόνος υλοποίησης σε ώρες</t>
+  </si>
+  <si>
+    <t>Γενικά</t>
+  </si>
+  <si>
+    <t>Να μπει ένα Popup με τα στοιχεία μας όταν πατάει κάποιος στο Flight Scanner του μενου</t>
+  </si>
+  <si>
+    <t>Το site μας θα είναι στα ελληνικά η english?</t>
+  </si>
+  <si>
+    <t>δημιουργία φόρμας επιλογής:
+ημ/νιας αναχώρισης και επιστροφής και
+αεροδρομίου άφιξης και προορισμού με χρήση api που παρέχει αναζήτηση με τουλάχιστον 3 γράμματα στο όνομα της πόλης ή του διεθνούς κωδικού του αεροδρομίου</t>
+  </si>
+  <si>
+    <t>Κώστας, Νάσια</t>
+  </si>
+  <si>
+    <t>Εν' αναμονή του Token</t>
+  </si>
+  <si>
+    <t>Υλοποιήθηκε στα Αγγλικά ολόκληρο στην V2.0</t>
+  </si>
+  <si>
+    <t>Ναι, μετατροπή σε AJAX στην V1.2</t>
+  </si>
+  <si>
+    <t>Έγινε με XmlhttpRequest στην V2.0</t>
+  </si>
+  <si>
+    <r>
+      <t>Αεροδρόμια, Εταιρίες έχει ήδη γίνει στην V1.0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> εκκρεμεί ο πίνακας που θα κρατάει τις επιλογές του χρήστη</t>
+    </r>
+  </si>
+  <si>
+    <t>Major Version Control</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>V2.0</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>V1.0 First Edition implemented with PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The site is in english, MVC Logic,
+All main pages are pure front end html
+clean and tidy code sections </t>
+  </si>
+  <si>
+    <t>Ναι, υλοποιήθηκε με Javascript/Jquery στην V1.2</t>
   </si>
   <si>
     <r>
@@ -98,212 +304,51 @@
         <charset val="161"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Δημήτρης: Τα αεροδρόμια ήδη γίνονται retrieve με ajax</t>
+      <t>Δημήτρης: Τα αεροδρόμια ήδη γίνονται retrieve με ajax, στην V2.0</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Αεροδρόμια, Εταιρίες έχει ήδη γίνε</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ι</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, εκκρεμεί ο πίνακας που θα κρατάει τις επιλογές του χρήστη</t>
-    </r>
-  </si>
-  <si>
-    <t>Δημήτρης,Κώστας</t>
-  </si>
-  <si>
-    <t>Ναι</t>
-  </si>
-  <si>
-    <t>To footer πρέπει να κρύβεται ή να είναι roll σε μικρές αναλύσεις κινητού (κάτω από 768px το Height)</t>
-  </si>
-  <si>
-    <t>Σύνδεση του μενού με τις λειτουργίες του site</t>
-  </si>
-  <si>
-    <t>Δημιουργία token στο Login</t>
-  </si>
-  <si>
-    <t>MVC model στο Login</t>
-  </si>
-  <si>
-    <t>MVC model στο SignUp</t>
-  </si>
-  <si>
-    <t>Πίνακας επιλογών χρήστη στην Mysql</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Αποθήκευση επιλογών χρήστη</t>
-  </si>
-  <si>
-    <t>Ανάκτηση επιλογών χρήστη</t>
-  </si>
-  <si>
-    <t>Μερικώς</t>
-  </si>
-  <si>
-    <t>Υπεύθυνος</t>
-  </si>
-  <si>
-    <t>δημιουργία carousel</t>
-  </si>
-  <si>
-    <t>δημιουργία μενού πλοήγησης στο site</t>
-  </si>
-  <si>
-    <t>δημιουργία μενού εισαγωγής ή εγγραφής στην ιστοσελίδα</t>
-  </si>
-  <si>
-    <t>δημιουργία φόρμας εισόδου στην ιστοσελίδα</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>ο χρήστης δίνει email /password</t>
-  </si>
-  <si>
-    <t>υπάρχει δυνατότητα ανάκτησης password</t>
-  </si>
-  <si>
-    <t>Register page</t>
-  </si>
-  <si>
-    <t>δημιουργία φόρμας εγγραφής στην ιστοσελίδα</t>
-  </si>
-  <si>
-    <t>3.2.1</t>
-  </si>
-  <si>
-    <t>ο χρήστης δίνει email /password/ όνομα/ επίθετο</t>
-  </si>
-  <si>
-    <t>3.2.2</t>
-  </si>
-  <si>
-    <t>με το πάτημα του registration η εφαρμογή στέλνει confirmation email στον χρήστη</t>
-  </si>
-  <si>
-    <t>3.2.3</t>
-  </si>
-  <si>
-    <t>με το confirmation του χρήστη ο λογαριασμός του χρήστη καταγράφεται στη βάση</t>
-  </si>
-  <si>
-    <t>3.2.4</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>search page</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>έξοδος από τον λογαριασμό του χρήστη</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>Πρέπει να γίνει με jquery</t>
-  </si>
-  <si>
-    <t>Χρόνος υλοποίησης σε ώρες</t>
-  </si>
-  <si>
-    <t>Γενικά</t>
-  </si>
-  <si>
-    <t>Να μπει ένα Popup με τα στοιχεία μας όταν πατάει κάποιος στο Flight Scanner του μενου</t>
-  </si>
-  <si>
-    <t>Το site μας θα είναι στα ελληνικά η english?</t>
-  </si>
-  <si>
-    <t>Τώρα είναι και τα δύο</t>
-  </si>
-  <si>
-    <t>δημιουργία φόρμας επιλογής:
-ημ/νιας αναχώρισης και επιστροφής και
-αεροδρομίου άφιξης και προορισμού με χρήση api που παρέχει αναζήτηση με τουλάχιστον 3 γράμματα στο όνομα της πόλης ή του διεθνούς κωδικού του αεροδρομίου</t>
-  </si>
-  <si>
-    <t>Υλοποιήθηκε μερικώς. Θα είναι στα αγγλικά</t>
-  </si>
-  <si>
-    <t>Ναι, υλοποιήθηκε με Jquery</t>
-  </si>
-  <si>
-    <t>Κώστας, Νάσια</t>
-  </si>
-  <si>
-    <t>Εν' αναμονή του Token</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>Ναι στην V1.2</t>
+  </si>
+  <si>
+    <t>V1.1 First Bootstrap Implementation</t>
+  </si>
+  <si>
+    <t>V1.2 Mobile Ready Web Application</t>
+  </si>
+  <si>
+    <t>Προτεραιότητα</t>
+  </si>
+  <si>
+    <t>Νάσια, Δημήτρης</t>
+  </si>
+  <si>
+    <t>ΕΔΩ ΔΗΜΗΤΡΗ ΤΑ ΠΡΟΗΓΟΥΜΕΝΑ ΒΗΜΑΤΑ</t>
+  </si>
+  <si>
+    <t>Έγινε μεJavascript/JS Object στην V2.0</t>
+  </si>
+  <si>
+    <t>Δημιουργία κλήσης αεροδρομίων στην ΒΔ</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>Δημιουργία κλήσης airliners στην ΒΔ</t>
+  </si>
+  <si>
+    <t>Εκκρεμεί</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,14 +385,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,6 +399,23 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +425,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -379,11 +433,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -393,20 +462,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +514,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,6 +588,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -530,6 +623,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -705,14 +799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -720,7 +814,7 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -728,16 +822,16 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -745,62 +839,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -809,503 +903,629 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="E12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
+      <c r="D13" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="E22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="E25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
+      <c r="D35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C41" t="s">
         <v>19</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="90">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>6</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45">
-      <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B51" s="11"/>
+      <c r="C51" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="B42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="32.25" customHeight="1">
-      <c r="B43" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="D44" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="B52" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="15">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="17">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="17">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="17">
+        <v>43408</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A51:B51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>login page</t>
   </si>
@@ -342,6 +342,21 @@
   </si>
   <si>
     <t>Εκκρεμεί</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>Εάν δεν βρεί το αεροδρόμιο στην ΒΔ, να το αναζητεί από το API.</t>
+  </si>
+  <si>
+    <t>5.2.4</t>
+  </si>
+  <si>
+    <t>Εάν δεν βρεί την αεροπορική εταιρία στην ΒΔ, να την αναζητεί από το API.</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -476,9 +491,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -495,6 +507,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +979,7 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E11">
@@ -981,7 +996,7 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E12">
@@ -998,7 +1013,7 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E13">
@@ -1112,7 +1127,7 @@
       <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E21">
@@ -1129,7 +1144,7 @@
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E22">
@@ -1181,7 +1196,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1249,89 +1264,89 @@
       <c r="C33" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>97</v>
+      <c r="D33" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>97</v>
+        <v>69</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E38">
@@ -1339,168 +1354,202 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="4"/>
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>6</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
         <v>71</v>
       </c>
-      <c r="E43">
+      <c r="E45">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>7</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    <row r="49" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E47">
+      <c r="E49">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+    <row r="54" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C54" s="14">
         <v>43441</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C55" s="16">
         <v>43434</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C56" s="16">
         <v>43427</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="16" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C57" s="16">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF1F47F4-37D9-44A4-A6E6-1E60E0D4995C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="118">
   <si>
     <t>login page</t>
   </si>
@@ -231,9 +237,6 @@
   </si>
   <si>
     <t>Κώστας, Νάσια</t>
-  </si>
-  <si>
-    <t>Εν' αναμονή του Token</t>
   </si>
   <si>
     <t>Υλοποιήθηκε στα Αγγλικά ολόκληρο στην V2.0</t>
@@ -317,9 +320,6 @@
     <t>V1.2 Mobile Ready Web Application</t>
   </si>
   <si>
-    <t>Προτεραιότητα</t>
-  </si>
-  <si>
     <t>Νάσια, Δημήτρης</t>
   </si>
   <si>
@@ -357,12 +357,63 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>Ναι στην V2.1</t>
+  </si>
+  <si>
+    <t>V2.1</t>
+  </si>
+  <si>
+    <t>Token implemented in site navigation</t>
+  </si>
+  <si>
+    <t>Ενσωμάτωση token στις κλήσεις 5.2.1, 5.2.2</t>
+  </si>
+  <si>
+    <t>5.2.5</t>
+  </si>
+  <si>
+    <t>5.4.1</t>
+  </si>
+  <si>
+    <t>Check box για εμφάνιση μόνο απ'ευθείας πτήσεων</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>Βελτίωση αισθητικής φίλτρων φόρμας αναζήτησης</t>
+  </si>
+  <si>
+    <t>5.4.3</t>
+  </si>
+  <si>
+    <t>Βελτίωση αισθητικής αποτελεσμάτων</t>
+  </si>
+  <si>
+    <t>Δημήτρης, Κώστας</t>
+  </si>
+  <si>
+    <t>Ενσωμάτωση token στην κλήση αναζήτησης (μέσω PHP)</t>
+  </si>
+  <si>
+    <t>&gt;6;</t>
+  </si>
+  <si>
+    <t>Ναι στην V2.1 με λειτουργία token</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -504,12 +555,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,9 +660,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,6 +712,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -814,11 +904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -882,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -899,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -929,7 +1019,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -946,7 +1036,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -963,7 +1053,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -980,7 +1070,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -996,8 +1086,8 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>89</v>
+      <c r="D12" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1013,8 +1103,8 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>97</v>
+      <c r="D13" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1043,7 +1133,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1060,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1077,7 +1167,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1094,7 +1184,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1111,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1125,10 +1215,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1145,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1171,7 +1261,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E25" s="9">
         <v>1</v>
@@ -1196,11 +1286,11 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="19" t="s">
-        <v>91</v>
+      <c r="B29" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30">
         <v>15</v>
@@ -1231,7 +1321,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -1239,16 +1329,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1256,300 +1346,402 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37">
+      <c r="D38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38">
+      <c r="D43" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39">
+      <c r="D44" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44">
         <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>6</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="E45">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>7</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48">
+      <c r="D53" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
+    <row r="54" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C54" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49">
+      <c r="D54" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="11" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="16">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="B60" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="14">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="14">
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="B61" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="16">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="16">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="B62" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="16">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="16">
-        <v>43427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="B63" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B57" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="16">
+      <c r="C63" s="16">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A58:B58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1557,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1569,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07C873FB-2E57-4B36-9921-33DC9FFB12E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C4DDF-11D8-4665-8BE7-49A640E0F4DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
   <si>
     <t>login page</t>
   </si>
   <si>
     <t>a/a</t>
-  </si>
-  <si>
-    <t>captcha</t>
   </si>
   <si>
     <t>main page</t>
@@ -308,12 +305,6 @@
     <t>V1.2 Mobile Ready Web Application</t>
   </si>
   <si>
-    <t>Νάσια, Δημήτρης</t>
-  </si>
-  <si>
-    <t>ΕΔΩ ΔΗΜΗΤΡΗ ΤΑ ΠΡΟΗΓΟΥΜΕΝΑ ΒΗΜΑΤΑ</t>
-  </si>
-  <si>
     <t>Δημιουργία κλήσης αεροδρομίων στην ΒΔ</t>
   </si>
   <si>
@@ -465,13 +456,25 @@
   </si>
   <si>
     <t>Έγινε με Javascript/JS Object στην V2.0</t>
+  </si>
+  <si>
+    <t>captcha στην εγγραφή νέου χρήστη</t>
+  </si>
+  <si>
+    <t>Τράβηγμα δεδομένων API με Php code</t>
+  </si>
+  <si>
+    <t>Τράβηγμα των αεροδρομίων άφιξης και αναχώρησης με την php function: file_get_contents()</t>
+  </si>
+  <si>
+    <t>Τράβηγμα αποτελεσμάτων της αναζήτησης του api με την php function: file_get_contents()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,15 +525,6 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -567,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -579,9 +573,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -590,9 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -605,9 +593,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,7 +643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -974,405 +965,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>63</v>
+      <c r="E1" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>81</v>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>81</v>
+      <c r="A4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>81</v>
+      <c r="A5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>81</v>
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>81</v>
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>81</v>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>90</v>
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>96</v>
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>96</v>
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>81</v>
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>81</v>
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>81</v>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>81</v>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>81</v>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>90</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>90</v>
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1382,626 +1373,638 @@
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>69</v>
+      <c r="A34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E34" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>69</v>
+      <c r="A35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>90</v>
+      <c r="A36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>90</v>
+      <c r="A38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>80</v>
+      <c r="B40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="E40" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>90</v>
+      <c r="C42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E42" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>90</v>
+      <c r="A43" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>90</v>
+      <c r="A45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>90</v>
+      <c r="A46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>90</v>
+      <c r="A47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>6</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>31</v>
+      <c r="A50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="E50" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>79</v>
+      <c r="A51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>110</v>
+      <c r="A52" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="7"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>7</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="B54" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>90</v>
+      <c r="A55" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="A56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>90</v>
+      <c r="B59" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>90</v>
+      <c r="A60" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E60" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="B64" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="13" t="s">
-        <v>90</v>
+      <c r="C64" s="9"/>
+      <c r="D64" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="7"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="19"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="11" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="18">
+      <c r="A68" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="15">
         <v>43443</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="18">
+        <v>72</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" s="15">
         <v>43441</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="18">
+        <v>73</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="15">
         <v>43434</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="18">
+        <v>74</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="15">
         <v>43427</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="18">
+      <c r="C72" s="15">
         <v>43408</v>
       </c>
     </row>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C4DDF-11D8-4665-8BE7-49A640E0F4DC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A9B19A3-F495-4169-A6B7-4023AB3DD6ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
   <si>
     <t>login page</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>ο χρήστης δίνει email /password</t>
-  </si>
-  <si>
-    <t>υπάρχει δυνατότητα ανάκτησης password</t>
   </si>
   <si>
     <t>Register page</t>
@@ -425,9 +422,6 @@
     <t>Sign In. Καλύτερο μήνυμα λάθους εάν δωθούν λάθος κωδικοί εισόδου.</t>
   </si>
   <si>
-    <t>Search. Τα όμορφα images &amp; ajax popup να ξαναενεργοποιηθούν. Έλεγχον να δουλεύουν και σε κινητό.</t>
-  </si>
-  <si>
     <t>7.9</t>
   </si>
   <si>
@@ -468,6 +462,30 @@
   </si>
   <si>
     <t>Τράβηγμα αποτελεσμάτων της αναζήτησης του api με την php function: file_get_contents()</t>
+  </si>
+  <si>
+    <t>7.11</t>
+  </si>
+  <si>
+    <t>Ελεγχος εάν έχουμε την δυνατότητα https για Sign In or Sign Up</t>
+  </si>
+  <si>
+    <t>Ναι στην V2.2</t>
+  </si>
+  <si>
+    <t>Search. Τα όμορφα images &amp; ajax popup να ξαναενεργοποιηθούν. Test ωστε να δουλεύουν και σε κινητό.</t>
+  </si>
+  <si>
+    <t>7.12</t>
+  </si>
+  <si>
+    <t>To apikey να χρησιμοποιείται sto Backend από το config.php και στο frontend από το sessionStorage('apikey')</t>
+  </si>
+  <si>
+    <t>Να δημιου δυνατότητα ανάκτησης password</t>
+  </si>
+  <si>
+    <t>V2.2</t>
   </si>
 </sst>
 </file>
@@ -561,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -625,9 +643,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,7 +670,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -963,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,19 +1019,19 @@
         <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1017,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1034,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1051,7 +1078,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1068,12 +1095,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1086,7 +1113,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1103,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1120,7 +1147,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1128,16 +1155,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -1154,7 +1181,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
@@ -1171,7 +1198,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1188,12 +1215,12 @@
       <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1206,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1217,13 +1244,13 @@
         <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1231,16 +1258,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -1248,16 +1275,16 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2">
         <v>5</v>
@@ -1265,16 +1292,16 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1282,16 +1309,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1307,8 +1334,8 @@
       <c r="C22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>87</v>
+      <c r="D22" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1325,23 +1352,23 @@
       <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1358,12 +1385,12 @@
       <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="B27" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1374,16 +1401,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2">
         <v>4</v>
@@ -1391,16 +1418,16 @@
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -1408,16 +1435,16 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2">
         <v>3</v>
@@ -1425,16 +1452,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
@@ -1442,7 +1469,7 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>16</v>
@@ -1451,7 +1478,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -1459,16 +1486,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E34" s="2">
         <v>3</v>
@@ -1476,16 +1503,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -1493,16 +1520,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -1510,65 +1537,65 @@
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2">
         <v>6</v>
@@ -1576,33 +1603,33 @@
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2">
         <v>6</v>
@@ -1610,16 +1637,16 @@
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
@@ -1627,24 +1654,24 @@
     </row>
     <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>25</v>
@@ -1653,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2">
         <v>4</v>
@@ -1661,7 +1688,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>28</v>
@@ -1670,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -1678,7 +1705,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>29</v>
@@ -1687,7 +1714,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -1704,16 +1731,16 @@
       <c r="A49" s="3">
         <v>6</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>13</v>
@@ -1730,7 +1757,7 @@
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>20</v>
@@ -1739,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
@@ -1747,7 +1774,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>21</v>
@@ -1756,7 +1783,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
@@ -1773,25 +1800,25 @@
       <c r="A54" s="3">
         <v>7</v>
       </c>
-      <c r="B54" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
+      <c r="B54" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -1799,16 +1826,16 @@
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
@@ -1816,42 +1843,44 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D58" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>87</v>
+      <c r="D59" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -1859,16 +1888,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>87</v>
+      <c r="D60" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E60" s="2">
         <v>0.5</v>
@@ -1876,141 +1905,184 @@
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="11" t="s">
-        <v>87</v>
+        <v>121</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="11" t="s">
+        <v>86</v>
+      </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="16"/>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="6"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="9" t="s">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="15">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" s="15">
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="15">
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="15">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="15">
-        <v>43427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="15">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="15">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="15">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="15">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A69:B69"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B15:E15"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A9B19A3-F495-4169-A6B7-4023AB3DD6ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D712CD9B-E65F-4EE1-945E-8699957A1868}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="143">
   <si>
     <t>login page</t>
   </si>
@@ -326,9 +326,6 @@
     <t>5.2.4</t>
   </si>
   <si>
-    <t>Εάν δεν βρεί την αεροπορική εταιρία στην ΒΔ, να την αναζητεί από το API.</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>Ενσωμάτωση token στις κλήσεις 5.2.1, 5.2.2</t>
   </si>
   <si>
-    <t>5.2.5</t>
-  </si>
-  <si>
     <t>5.4.1</t>
   </si>
   <si>
@@ -486,6 +480,9 @@
   </si>
   <si>
     <t>V2.2</t>
+  </si>
+  <si>
+    <t>Front end Improvements</t>
   </si>
 </sst>
 </file>
@@ -637,19 +634,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,12 +1023,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1095,12 +1092,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1158,7 +1155,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
@@ -1181,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
@@ -1198,7 +1195,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1215,12 +1212,12 @@
       <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1312,7 +1309,7 @@
         <v>46</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>18</v>
@@ -1335,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1352,12 +1349,12 @@
       <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -1368,7 +1365,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="8">
         <v>1</v>
@@ -1385,12 +1382,12 @@
       <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1401,10 +1398,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>18</v>
@@ -1418,10 +1415,10 @@
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>18</v>
@@ -1435,10 +1432,10 @@
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
@@ -1455,7 +1452,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
@@ -1478,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -1523,7 +1520,7 @@
         <v>87</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>18</v>
@@ -1549,93 +1546,93 @@
         <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
@@ -1643,38 +1640,38 @@
         <v>100</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>105</v>
+      <c r="E44" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>19</v>
@@ -1688,10 +1685,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -1704,151 +1701,149 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="2">
-        <v>4</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="2"/>
+      <c r="A48" s="3">
+        <v>6</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>6</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="13" t="s">
-        <v>30</v>
+      <c r="D50" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="E50" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="2">
-        <v>5</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A53" s="3">
         <v>7</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="B53" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="E55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D57" s="11" t="s">
         <v>86</v>
       </c>
@@ -1859,36 +1854,38 @@
         <v>112</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="B59" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>119</v>
@@ -1897,36 +1894,34 @@
         <v>17</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>138</v>
+        <v>18</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>86</v>
@@ -1935,161 +1930,150 @@
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="C63" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="D65" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>86</v>
-      </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" s="23" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="9" t="s">
-        <v>70</v>
+      <c r="B69" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="15">
+        <v>43449</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A70" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="14" t="s">
-        <v>94</v>
+      <c r="C70" s="15">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="C71" s="15">
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C72" s="15">
-        <v>43441</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="15">
-        <v>43434</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C74" s="15">
-        <v>43427</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="15">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B48:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D712CD9B-E65F-4EE1-945E-8699957A1868}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC972C1C-E833-4BB5-9600-109AEDAD532F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>login page</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Ανάκτηση επιλογών χρήστη</t>
-  </si>
-  <si>
-    <t>Μερικώς</t>
   </si>
   <si>
     <t>Υπεύθυνος</t>
@@ -476,13 +473,40 @@
     <t>To apikey να χρησιμοποιείται sto Backend από το config.php και στο frontend από το sessionStorage('apikey')</t>
   </si>
   <si>
-    <t>Να δημιου δυνατότητα ανάκτησης password</t>
-  </si>
-  <si>
     <t>V2.2</t>
   </si>
   <si>
     <t>Front end Improvements</t>
+  </si>
+  <si>
+    <t>Δυνατότητα ανάκτησης password</t>
+  </si>
+  <si>
+    <t>Ναι στην V2.3</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>Δυνατότητα αλλαγής στοιχείων πελάτη</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>Δυνατότητα αλλαγής password πελάτη</t>
+  </si>
+  <si>
+    <t>7.13</t>
+  </si>
+  <si>
+    <t>Να μπει το όνομα του χρήστη στο μενού (μόνο στις μεγάλες αναλύσεις)</t>
+  </si>
+  <si>
+    <t>V2.3</t>
+  </si>
+  <si>
+    <t>Forgot Password. Minor bugs, improvements</t>
   </si>
 </sst>
 </file>
@@ -526,7 +550,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -534,7 +558,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -576,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -606,14 +630,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -640,14 +661,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,79 +1037,79 @@
         <v>14</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
@@ -1092,25 +1119,25 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1121,13 +1148,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1135,16 +1162,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1152,464 +1179,460 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>86</v>
+      <c r="D11" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
+      <c r="B17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>4</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="D27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>127</v>
+      <c r="B29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E32" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>52</v>
+      <c r="A33" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>78</v>
+      <c r="D39" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="E39" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>86</v>
+      <c r="D41" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E41" s="2">
         <v>6</v>
@@ -1617,463 +1640,529 @@
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="D45" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="2">
-        <v>4</v>
+        <v>85</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="2"/>
+      <c r="A47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B50" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E50" s="2">
-        <v>5</v>
-      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>7</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>7</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="9" t="s">
+      <c r="B56" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D56" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="C59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="D59" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="C61" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>86</v>
+        <v>17</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.5</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>135</v>
+        <v>119</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="22" t="s">
-        <v>139</v>
+        <v>120</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="9" t="s">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="14">
+        <v>43458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="14">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="14">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="15">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="15">
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="B75" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="14">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C71" s="15">
-        <v>43441</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B76" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="14">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="15">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="B77" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="14">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="15">
-        <v>43427</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74" s="15">
+      <c r="C78" s="14">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A71:B71"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC972C1C-E833-4BB5-9600-109AEDAD532F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{577E09B4-B7A7-445B-B223-1BEC2960BFFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
   <si>
     <t>login page</t>
   </si>
@@ -323,9 +323,6 @@
     <t>5.2.4</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>Ναι στην V2.1</t>
   </si>
   <si>
@@ -507,6 +504,24 @@
   </si>
   <si>
     <t>Forgot Password. Minor bugs, improvements</t>
+  </si>
+  <si>
+    <t>Κώστας: Επικοινώνησα με Ουγιάρογλου, αναμενουμε</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>system usability scale SUS Implementation</t>
+  </si>
+  <si>
+    <t>7.14.1</t>
+  </si>
+  <si>
+    <t>SUS επεξεργασία</t>
+  </si>
+  <si>
+    <t>Συγκέντρωση αποτελεσμάτων</t>
   </si>
 </sst>
 </file>
@@ -600,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -667,14 +682,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,12 +1068,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1119,12 +1137,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1182,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
@@ -1196,30 +1214,30 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>85</v>
       </c>
       <c r="E13" s="2"/>
@@ -1235,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
@@ -1252,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -1269,12 +1287,12 @@
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1366,7 +1384,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>18</v>
@@ -1389,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1406,12 +1424,12 @@
       <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1422,7 +1440,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="8">
         <v>1</v>
@@ -1439,12 +1457,12 @@
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1455,10 +1473,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
@@ -1472,10 +1490,10 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
@@ -1489,10 +1507,10 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -1509,7 +1527,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>18</v>
@@ -1532,7 +1550,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
@@ -1577,16 +1595,16 @@
         <v>86</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>85</v>
+      <c r="D38" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="E38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1600,7 +1618,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
@@ -1614,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>67</v>
@@ -1640,10 +1658,10 @@
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>18</v>
@@ -1651,19 +1669,19 @@
       <c r="D42" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
+      <c r="E42" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>85</v>
@@ -1674,16 +1692,16 @@
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
@@ -1691,19 +1709,19 @@
     </row>
     <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1768,12 +1786,12 @@
       <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -1786,10 +1804,10 @@
         <v>17</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1820,7 +1838,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
@@ -1837,16 +1855,16 @@
       <c r="A55" s="3">
         <v>7</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="B55" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>61</v>
@@ -1863,10 +1881,10 @@
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>63</v>
@@ -1880,16 +1898,16 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
@@ -1897,10 +1915,10 @@
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>18</v>
@@ -1912,16 +1930,16 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -1929,16 +1947,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2">
         <v>0.5</v>
@@ -1946,25 +1964,27 @@
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>18</v>
@@ -1976,13 +1996,13 @@
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>85</v>
@@ -1991,16 +2011,16 @@
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E65" s="2">
         <v>0.5</v>
@@ -2008,40 +2028,40 @@
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="C66" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>148</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>17</v>
@@ -2054,108 +2074,140 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="2"/>
+      <c r="A69" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="15"/>
+      <c r="A70" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="9" t="s">
+      <c r="B73" s="25"/>
+      <c r="C73" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C72" s="14">
+      <c r="C74" s="14">
         <v>43458</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C73" s="14">
+      <c r="C75" s="14">
         <v>43449</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="19" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" s="14">
+      <c r="C76" s="14">
         <v>43443</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+    <row r="77" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C77" s="14">
         <v>43441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C76" s="14">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="14">
-        <v>43427</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="14">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="14">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B80" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C80" s="14">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B17:E17"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{577E09B4-B7A7-445B-B223-1BEC2960BFFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A1F4CD6-5DB0-4325-821E-2EFDCD9219A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
   <si>
     <t>login page</t>
   </si>
@@ -422,9 +422,6 @@
     <t>Όλοι</t>
   </si>
   <si>
-    <t>Search. Ιδέες για καλύτερη εμφάνιση των αποτελεσμάτων Step 5.4.3</t>
-  </si>
-  <si>
     <t>5.0</t>
   </si>
   <si>
@@ -497,9 +494,6 @@
     <t>7.13</t>
   </si>
   <si>
-    <t>Να μπει το όνομα του χρήστη στο μενού (μόνο στις μεγάλες αναλύσεις)</t>
-  </si>
-  <si>
     <t>V2.3</t>
   </si>
   <si>
@@ -509,19 +503,19 @@
     <t>Κώστας: Επικοινώνησα με Ουγιάρογλου, αναμενουμε</t>
   </si>
   <si>
-    <t>7.14</t>
-  </si>
-  <si>
     <t>system usability scale SUS Implementation</t>
   </si>
   <si>
-    <t>7.14.1</t>
-  </si>
-  <si>
     <t>SUS επεξεργασία</t>
   </si>
   <si>
     <t>Συγκέντρωση αποτελεσμάτων</t>
+  </si>
+  <si>
+    <t>7.13.1</t>
+  </si>
+  <si>
+    <t>Να μπει το όνομα του χρήστη στο μενού settings</t>
   </si>
 </sst>
 </file>
@@ -685,14 +679,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,12 +1062,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1137,12 +1131,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1200,13 +1194,13 @@
         <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
@@ -1214,10 +1208,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
@@ -1229,10 +1223,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
@@ -1287,12 +1281,12 @@
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1384,7 +1378,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>18</v>
@@ -1407,7 +1401,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1424,12 +1418,12 @@
       <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1457,12 +1451,12 @@
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1473,10 +1467,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
@@ -1490,10 +1484,10 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
@@ -1507,10 +1501,10 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -1527,7 +1521,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>18</v>
@@ -1550,7 +1544,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
@@ -1601,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
@@ -1618,7 +1612,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
@@ -1666,8 +1660,8 @@
       <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>85</v>
+      <c r="D42" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -1701,7 +1695,7 @@
         <v>17</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
@@ -1786,12 +1780,12 @@
       <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -1804,7 +1798,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2">
         <v>14</v>
@@ -1855,12 +1849,12 @@
       <c r="A55" s="3">
         <v>7</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -1907,7 +1901,7 @@
         <v>19</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
@@ -1923,10 +1917,12 @@
       <c r="C59" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2"/>
+      <c r="D59" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -1939,7 +1935,7 @@
         <v>17</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -1956,7 +1952,7 @@
         <v>17</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="2">
         <v>0.5</v>
@@ -1973,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -1984,7 +1980,7 @@
         <v>114</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>18</v>
@@ -1999,75 +1995,77 @@
         <v>118</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>120</v>
+      <c r="B65" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="C65" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" s="21" t="s">
+      <c r="D66" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D67" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>85</v>
+        <v>121</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E68" s="2">
         <v>2</v>
@@ -2075,139 +2073,122 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="2">
-        <v>2</v>
-      </c>
+      <c r="D69" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="15"/>
+      <c r="A72" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="9" t="s">
-        <v>69</v>
+      <c r="A73" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="14">
+        <v>43458</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>148</v>
+      <c r="A74" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C74" s="14">
-        <v>43458</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>139</v>
+      <c r="A75" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="C75" s="14">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>91</v>
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C76" s="14">
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C77" s="14">
-        <v>43441</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="14">
-        <v>43434</v>
+        <v>43427</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C79" s="14">
-        <v>43427</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C80" s="14">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B17:E17"/>
@@ -2228,7 +2209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A1F4CD6-5DB0-4325-821E-2EFDCD9219A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{048D7747-D730-429F-B4EE-192C87113C4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,8 +2047,8 @@
       <c r="C67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>85</v>
+      <c r="D67" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E67" s="2">
         <v>2</v>
@@ -2117,7 +2117,7 @@
         <v>147</v>
       </c>
       <c r="C73" s="14">
-        <v>43458</v>
+        <v>43461</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{048D7747-D730-429F-B4EE-192C87113C4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C93B3182-631F-45A2-A874-5E5882CD68D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,8 +1866,8 @@
       <c r="C56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>85</v>
+      <c r="D56" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\flights\Tasks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C93B3182-631F-45A2-A874-5E5882CD68D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="157">
   <si>
     <t>login page</t>
   </si>
@@ -227,22 +221,6 @@
     <t>Έγινε με XmlhttpRequest στην V2.0</t>
   </si>
   <si>
-    <r>
-      <t>Αεροδρόμια, Εταιρίες έχει ήδη γίνει στην V1.0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> εκκρεμεί ο πίνακας που θα κρατάει τις επιλογές του χρήστη</t>
-    </r>
-  </si>
-  <si>
     <t>Major Version Control</t>
   </si>
   <si>
@@ -272,24 +250,6 @@
     <t>Ναι, υλοποιήθηκε με Javascript/Jquery στην V1.2</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Ναι, Πρέπει να τροποποιηθεί με τεχνολογία ajax
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Δημήτρης: Τα αεροδρόμια ήδη γίνονται retrieve με ajax, στην V2.0</t>
-    </r>
-  </si>
-  <si>
     <t>Ναι στην V1.2</t>
   </si>
   <si>
@@ -356,12 +316,6 @@
     <t>Δημήτρης, Κώστας</t>
   </si>
   <si>
-    <t>Ενσωμάτωση token στην κλήση αναζήτησης (μέσω PHP)</t>
-  </si>
-  <si>
-    <t>&gt;6;</t>
-  </si>
-  <si>
     <t>Ναι στην V2.1 με λειτουργία token</t>
   </si>
   <si>
@@ -500,9 +454,6 @@
     <t>Forgot Password. Minor bugs, improvements</t>
   </si>
   <si>
-    <t>Κώστας: Επικοινώνησα με Ουγιάρογλου, αναμενουμε</t>
-  </si>
-  <si>
     <t>system usability scale SUS Implementation</t>
   </si>
   <si>
@@ -516,12 +467,36 @@
   </si>
   <si>
     <t>Να μπει το όνομα του χρήστη στο μενού settings</t>
+  </si>
+  <si>
+    <t>V2.4</t>
+  </si>
+  <si>
+    <t>Save, Load, Delete filters working perfectly</t>
+  </si>
+  <si>
+    <t>Κώστας: Επικοινώνησα με Ουγιάρογλου, αναμενουμε. Δεν απάντησε ο Ουγιάρογλου.</t>
+  </si>
+  <si>
+    <t>Ναι στην V2.4 Εγινε με CORS</t>
+  </si>
+  <si>
+    <t>Ενσωμάτωση token στην κλήση αναζήτησης</t>
+  </si>
+  <si>
+    <t>Ναι στην V2.4</t>
+  </si>
+  <si>
+    <t>7.14</t>
+  </si>
+  <si>
+    <t>Μετατροπή όλων των alerts &amp; prompts σε αντίστοιχα modals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,15 +524,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -568,6 +534,14 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -609,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -639,7 +613,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -676,10 +650,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -748,7 +725,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -781,26 +758,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,23 +793,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1025,11 +968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,12 +1005,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1080,7 +1023,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1097,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1114,7 +1057,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1131,12 +1074,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1149,7 +1092,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1166,7 +1109,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1183,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1194,13 +1137,13 @@
         <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
@@ -1208,31 +1151,31 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1247,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
@@ -1264,7 +1207,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -1281,12 +1224,12 @@
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1299,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1316,7 +1259,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -1333,7 +1276,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1350,7 +1293,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2">
         <v>5</v>
@@ -1367,7 +1310,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1378,13 +1321,13 @@
         <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1401,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1418,12 +1361,12 @@
       <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1434,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="8">
         <v>1</v>
@@ -1451,12 +1394,12 @@
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1467,16 +1410,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2">
         <v>4</v>
@@ -1484,16 +1427,16 @@
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1501,16 +1444,16 @@
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" s="2">
         <v>3</v>
@@ -1521,7 +1464,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>18</v>
@@ -1544,7 +1487,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
@@ -1552,10 +1495,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>17</v>
@@ -1569,10 +1512,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>17</v>
@@ -1586,16 +1529,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
@@ -1603,22 +1546,22 @@
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
@@ -1626,10 +1569,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>67</v>
+        <v>97</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -1643,8 +1586,8 @@
       <c r="C41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>77</v>
+      <c r="D41" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E41" s="2">
         <v>6</v>
@@ -1652,16 +1595,16 @@
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -1669,16 +1612,16 @@
     </row>
     <row r="43" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>85</v>
+      <c r="D43" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="E43" s="2">
         <v>6</v>
@@ -1686,16 +1629,16 @@
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
@@ -1703,19 +1646,19 @@
     </row>
     <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>101</v>
+      <c r="D45" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1728,8 +1671,8 @@
       <c r="C46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>85</v>
+      <c r="D46" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -1745,8 +1688,8 @@
       <c r="C47" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>85</v>
+      <c r="D47" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -1762,8 +1705,8 @@
       <c r="C48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>85</v>
+      <c r="D48" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -1780,12 +1723,12 @@
       <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -1798,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2">
         <v>14</v>
@@ -1815,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
@@ -1832,7 +1775,7 @@
         <v>17</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
@@ -1849,16 +1792,16 @@
       <c r="A55" s="3">
         <v>7</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
+      <c r="B55" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>61</v>
@@ -1867,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -1875,10 +1818,10 @@
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>63</v>
@@ -1892,16 +1835,16 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
@@ -1909,16 +1852,16 @@
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2">
         <v>2</v>
@@ -1926,16 +1869,16 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -1943,16 +1886,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E61" s="2">
         <v>0.5</v>
@@ -1960,16 +1903,16 @@
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -1977,31 +1920,31 @@
     </row>
     <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E64" s="2">
         <v>0.5</v>
@@ -2009,46 +1952,46 @@
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>148</v>
+        <v>117</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2">
         <v>2</v>
@@ -2056,16 +1999,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E68" s="2">
         <v>2</v>
@@ -2073,122 +2016,150 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="15"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="9" t="s">
+      <c r="C74" s="14">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="14">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="14">
+        <v>43449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="14">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="14">
-        <v>43461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C74" s="14">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="14">
-        <v>43443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="14">
+      <c r="B78" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="14">
         <v>43441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="14">
-        <v>43434</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="14">
-        <v>43427</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="14">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="14">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="14">
+      <c r="C81" s="14">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B17:E17"/>
@@ -2206,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2220,7 +2191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
   <si>
     <t>login page</t>
   </si>
@@ -472,9 +472,6 @@
     <t>V2.4</t>
   </si>
   <si>
-    <t>Save, Load, Delete filters working perfectly</t>
-  </si>
-  <si>
     <t>Κώστας: Επικοινώνησα με Ουγιάρογλου, αναμενουμε. Δεν απάντησε ο Ουγιάρογλου.</t>
   </si>
   <si>
@@ -491,6 +488,18 @@
   </si>
   <si>
     <t>Μετατροπή όλων των alerts &amp; prompts σε αντίστοιχα modals</t>
+  </si>
+  <si>
+    <t>Ναι στην V2.5</t>
+  </si>
+  <si>
+    <t>V2.5</t>
+  </si>
+  <si>
+    <t>Change profile settings</t>
+  </si>
+  <si>
+    <t>Save, Load, Delete search filters</t>
   </si>
 </sst>
 </file>
@@ -583,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -658,6 +667,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -969,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,12 +1017,12 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1074,12 +1086,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1159,10 +1171,12 @@
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="D12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1224,12 +1238,12 @@
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1361,12 +1375,12 @@
       <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1394,12 +1408,12 @@
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1572,7 +1586,7 @@
         <v>97</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -1587,7 +1601,7 @@
         <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E41" s="2">
         <v>6</v>
@@ -1615,13 +1629,13 @@
         <v>95</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E43" s="2">
         <v>6</v>
@@ -1655,7 +1669,7 @@
         <v>97</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E45" s="2">
         <v>6</v>
@@ -1672,7 +1686,7 @@
         <v>19</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
@@ -1689,7 +1703,7 @@
         <v>19</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -1706,7 +1720,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2">
         <v>4</v>
@@ -1723,12 +1737,12 @@
       <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -1792,12 +1806,12 @@
       <c r="A55" s="3">
         <v>7</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -1928,10 +1942,12 @@
       <c r="C63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="2"/>
+      <c r="D63" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -1961,7 +1977,7 @@
         <v>117</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -2031,16 +2047,16 @@
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>156</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
@@ -2061,99 +2077,110 @@
       <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="27"/>
+      <c r="B73" s="28"/>
       <c r="C73" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="14">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C74" s="14">
-        <v>43469</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="B75" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="14">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C76" s="14">
         <v>43461</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B77" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C77" s="14">
         <v>43449</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B78" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C78" s="14">
         <v>43443</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C79" s="14">
         <v>43441</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="14">
-        <v>43434</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C80" s="14">
-        <v>43427</v>
+        <v>43434</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="14">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C82" s="14">
         <v>43408</v>
       </c>
     </row>

--- a/Tasks/To Do.xlsx
+++ b/Tasks/To Do.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\flights\Tasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D7F459CB-9337-4312-B3C6-2D4F75255C53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="13395" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="159">
   <si>
     <t>login page</t>
   </si>
@@ -269,9 +275,6 @@
   </si>
   <si>
     <t>Δημιουργία κλήσης airliners στην ΒΔ</t>
-  </si>
-  <si>
-    <t>Εκκρεμεί</t>
   </si>
   <si>
     <t>5.2.3</t>
@@ -505,8 +508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,14 +538,6 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
@@ -592,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -601,9 +596,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -659,13 +651,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,9 +759,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,6 +811,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,36 +1003,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1017,24 +1040,24 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="2">
@@ -1042,16 +1065,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E4" s="2">
@@ -1059,16 +1082,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="2">
@@ -1076,34 +1099,34 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="2">
@@ -1111,16 +1134,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E9" s="2">
@@ -1128,16 +1151,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E10" s="2">
@@ -1145,117 +1168,119 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>156</v>
+      <c r="D12" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="E12" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="D13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>87</v>
+      <c r="D14" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>87</v>
+      <c r="D15" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="2">
@@ -1263,16 +1288,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E19" s="2">
@@ -1280,16 +1305,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="2">
@@ -1297,16 +1322,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E21" s="2">
@@ -1314,16 +1339,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E22" s="2">
@@ -1331,16 +1356,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="2">
@@ -1348,176 +1373,186 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>129</v>
+      <c r="D24" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="D27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A30" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>72</v>
+      <c r="D33" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>122</v>
+      <c r="D35" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E35" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E36" s="2">
@@ -1525,675 +1560,660 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>66</v>
+      <c r="A37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>136</v>
+      <c r="D38" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="A39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="2">
+      <c r="D40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="2">
+    <row r="44" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="9" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="E45" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="A46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>153</v>
+      <c r="D46" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E46" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>153</v>
+      <c r="D47" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="2">
-        <v>4</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="2"/>
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>6</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>136</v>
+      <c r="D50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="E51" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>75</v>
+      <c r="D52" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>7</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>7</v>
-      </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="B57" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>136</v>
+      <c r="D58" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="A59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="D62" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>156</v>
+      <c r="D63" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="E63" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="21" t="s">
+      <c r="D65" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>150</v>
-      </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C66" s="9" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="2"/>
+      <c r="D66" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>136</v>
+      <c r="A67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E67" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="14"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="C72" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="13">
+        <v>43471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="13">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E70" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="15"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="14">
-        <v>43471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="14">
-        <v>43468</v>
+      <c r="B75" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="13">
+        <v>43461</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="14">
-        <v>43461</v>
+      <c r="A76" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="13">
+        <v>43449</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="14">
-        <v>43449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="19" t="s">
+      <c r="A77" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="14">
+      <c r="C77" s="13">
         <v>43443</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="13">
+        <v>43441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="14">
-        <v>43441</v>
+        <v>70</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="13">
+        <v>43434</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="14">
-        <v>43434</v>
+        <v>71</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="13">
+        <v>43427</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="14">
-        <v>43427</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C81" s="13">
         <v>43408</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A72:B72"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B49:E49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2204,7 +2224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2218,7 +2238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0"/>
